--- a/misc/Yaledataset+handover.xlsx
+++ b/misc/Yaledataset+handover.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="407" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="407"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="110">
   <si>
     <t>S.No</t>
   </si>
@@ -341,16 +340,19 @@
   </si>
   <si>
     <t>toy airplane</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>MAYBE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -359,22 +361,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -404,7 +391,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -412,64 +399,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Bad" xfId="20" builtinId="54" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -477,8 +428,6 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -487,6 +436,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -545,1066 +495,1361 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="1:95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK95"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="49.8542510121458"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="24.1457489878543"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="15.5384615384615"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="30.8704453441296"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="2" width="9.1417004048583"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="49.85546875" style="2"/>
+    <col min="3" max="3" width="16.85546875" style="2"/>
+    <col min="4" max="4" width="24.140625" style="2"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="10.5703125" style="1"/>
+    <col min="7" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="15.28515625" style="1"/>
+    <col min="11" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="15.5703125" style="2"/>
+    <col min="14" max="14" width="15.140625" style="2"/>
+    <col min="15" max="15" width="30.85546875" style="2"/>
+    <col min="16" max="1025" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="M1" s="0"/>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0"/>
-      <c r="P1" s="0"/>
-      <c r="Q1" s="0"/>
-      <c r="R1" s="0"/>
-      <c r="S1" s="0"/>
-      <c r="T1" s="0"/>
-      <c r="U1" s="0"/>
-      <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
-      <c r="X1" s="0"/>
-      <c r="Y1" s="0"/>
-      <c r="Z1" s="0"/>
-      <c r="AA1" s="0"/>
-      <c r="AB1" s="0"/>
-      <c r="AC1" s="0"/>
-      <c r="AD1" s="0"/>
-      <c r="AE1" s="0"/>
-      <c r="AF1" s="0"/>
-      <c r="AG1" s="0"/>
-      <c r="AH1" s="0"/>
-      <c r="AI1" s="0"/>
-      <c r="AJ1" s="0"/>
-      <c r="AK1" s="0"/>
-      <c r="AL1" s="0"/>
-      <c r="AM1" s="0"/>
-      <c r="AN1" s="0"/>
-      <c r="AO1" s="0"/>
-      <c r="AP1" s="0"/>
-      <c r="AQ1" s="0"/>
-      <c r="AR1" s="0"/>
-      <c r="AS1" s="0"/>
-      <c r="AT1" s="0"/>
-      <c r="AU1" s="0"/>
-      <c r="AV1" s="0"/>
-      <c r="AW1" s="0"/>
-      <c r="AX1" s="0"/>
-      <c r="AY1" s="0"/>
-      <c r="AZ1" s="0"/>
-      <c r="BA1" s="0"/>
-      <c r="BB1" s="0"/>
-      <c r="BC1" s="0"/>
-      <c r="BD1" s="0"/>
-      <c r="BE1" s="0"/>
-      <c r="BF1" s="0"/>
-      <c r="BG1" s="0"/>
-      <c r="BH1" s="0"/>
-      <c r="BI1" s="0"/>
-      <c r="BJ1" s="0"/>
-      <c r="BK1" s="0"/>
-      <c r="BL1" s="0"/>
-      <c r="BM1" s="0"/>
-      <c r="BN1" s="0"/>
-      <c r="BO1" s="0"/>
-      <c r="BP1" s="0"/>
-      <c r="BQ1" s="0"/>
-      <c r="BR1" s="0"/>
-      <c r="BS1" s="0"/>
-      <c r="BT1" s="0"/>
-      <c r="BU1" s="0"/>
-      <c r="BV1" s="0"/>
-      <c r="BW1" s="0"/>
-      <c r="BX1" s="0"/>
-      <c r="BY1" s="0"/>
-      <c r="BZ1" s="0"/>
-      <c r="CA1" s="0"/>
-      <c r="CB1" s="0"/>
-      <c r="CC1" s="0"/>
-      <c r="CD1" s="0"/>
-      <c r="CE1" s="0"/>
-      <c r="CF1" s="0"/>
-      <c r="CG1" s="0"/>
-      <c r="CH1" s="0"/>
-      <c r="CI1" s="0"/>
-      <c r="CJ1" s="0"/>
-      <c r="CK1" s="0"/>
-      <c r="CL1" s="0"/>
-      <c r="CM1" s="0"/>
-      <c r="CN1" s="0"/>
-      <c r="CO1" s="0"/>
-      <c r="CP1" s="0"/>
-      <c r="CQ1" s="0"/>
-      <c r="CR1" s="0"/>
-      <c r="CS1" s="0"/>
-      <c r="CT1" s="0"/>
-      <c r="CU1" s="0"/>
-      <c r="CV1" s="0"/>
-      <c r="CW1" s="0"/>
-      <c r="CX1" s="0"/>
-      <c r="CY1" s="0"/>
-      <c r="CZ1" s="0"/>
-      <c r="DA1" s="0"/>
-      <c r="DB1" s="0"/>
-      <c r="DC1" s="0"/>
-      <c r="DD1" s="0"/>
-      <c r="DE1" s="0"/>
-      <c r="DF1" s="0"/>
-      <c r="DG1" s="0"/>
-      <c r="DH1" s="0"/>
-      <c r="DI1" s="0"/>
-      <c r="DJ1" s="0"/>
-      <c r="DK1" s="0"/>
-      <c r="DL1" s="0"/>
-      <c r="DM1" s="0"/>
-      <c r="DN1" s="0"/>
-      <c r="DO1" s="0"/>
-      <c r="DP1" s="0"/>
-      <c r="DQ1" s="0"/>
-      <c r="DR1" s="0"/>
-      <c r="DS1" s="0"/>
-      <c r="DT1" s="0"/>
-      <c r="DU1" s="0"/>
-      <c r="DV1" s="0"/>
-      <c r="DW1" s="0"/>
-      <c r="DX1" s="0"/>
-      <c r="DY1" s="0"/>
-      <c r="DZ1" s="0"/>
-      <c r="EA1" s="0"/>
-      <c r="EB1" s="0"/>
-      <c r="EC1" s="0"/>
-      <c r="ED1" s="0"/>
-      <c r="EE1" s="0"/>
-      <c r="EF1" s="0"/>
-      <c r="EG1" s="0"/>
-      <c r="EH1" s="0"/>
-      <c r="EI1" s="0"/>
-      <c r="EJ1" s="0"/>
-      <c r="EK1" s="0"/>
-      <c r="EL1" s="0"/>
-      <c r="EM1" s="0"/>
-      <c r="EN1" s="0"/>
-      <c r="EO1" s="0"/>
-      <c r="EP1" s="0"/>
-      <c r="EQ1" s="0"/>
-      <c r="ER1" s="0"/>
-      <c r="ES1" s="0"/>
-      <c r="ET1" s="0"/>
-      <c r="EU1" s="0"/>
-      <c r="EV1" s="0"/>
-      <c r="EW1" s="0"/>
-      <c r="EX1" s="0"/>
-      <c r="EY1" s="0"/>
-      <c r="EZ1" s="0"/>
-      <c r="FA1" s="0"/>
-      <c r="FB1" s="0"/>
-      <c r="FC1" s="0"/>
-      <c r="FD1" s="0"/>
-      <c r="FE1" s="0"/>
-      <c r="FF1" s="0"/>
-      <c r="FG1" s="0"/>
-      <c r="FH1" s="0"/>
-      <c r="FI1" s="0"/>
-      <c r="FJ1" s="0"/>
-      <c r="FK1" s="0"/>
-      <c r="FL1" s="0"/>
-      <c r="FM1" s="0"/>
-      <c r="FN1" s="0"/>
-      <c r="FO1" s="0"/>
-      <c r="FP1" s="0"/>
-      <c r="FQ1" s="0"/>
-      <c r="FR1" s="0"/>
-      <c r="FS1" s="0"/>
-      <c r="FT1" s="0"/>
-      <c r="FU1" s="0"/>
-      <c r="FV1" s="0"/>
-      <c r="FW1" s="0"/>
-      <c r="FX1" s="0"/>
-      <c r="FY1" s="0"/>
-      <c r="FZ1" s="0"/>
-      <c r="GA1" s="0"/>
-      <c r="GB1" s="0"/>
-      <c r="GC1" s="0"/>
-      <c r="GD1" s="0"/>
-      <c r="GE1" s="0"/>
-      <c r="GF1" s="0"/>
-      <c r="GG1" s="0"/>
-      <c r="GH1" s="0"/>
-      <c r="GI1" s="0"/>
-      <c r="GJ1" s="0"/>
-      <c r="GK1" s="0"/>
-      <c r="GL1" s="0"/>
-      <c r="GM1" s="0"/>
-      <c r="GN1" s="0"/>
-      <c r="GO1" s="0"/>
-      <c r="GP1" s="0"/>
-      <c r="GQ1" s="0"/>
-      <c r="GR1" s="0"/>
-      <c r="GS1" s="0"/>
-      <c r="GT1" s="0"/>
-      <c r="GU1" s="0"/>
-      <c r="GV1" s="0"/>
-      <c r="GW1" s="0"/>
-      <c r="GX1" s="0"/>
-      <c r="GY1" s="0"/>
-      <c r="GZ1" s="0"/>
-      <c r="HA1" s="0"/>
-      <c r="HB1" s="0"/>
-      <c r="HC1" s="0"/>
-      <c r="HD1" s="0"/>
-      <c r="HE1" s="0"/>
-      <c r="HF1" s="0"/>
-      <c r="HG1" s="0"/>
-      <c r="HH1" s="0"/>
-      <c r="HI1" s="0"/>
-      <c r="HJ1" s="0"/>
-      <c r="HK1" s="0"/>
-      <c r="HL1" s="0"/>
-      <c r="HM1" s="0"/>
-      <c r="HN1" s="0"/>
-      <c r="HO1" s="0"/>
-      <c r="HP1" s="0"/>
-      <c r="HQ1" s="0"/>
-      <c r="HR1" s="0"/>
-      <c r="HS1" s="0"/>
-      <c r="HT1" s="0"/>
-      <c r="HU1" s="0"/>
-      <c r="HV1" s="0"/>
-      <c r="HW1" s="0"/>
-      <c r="HX1" s="0"/>
-      <c r="HY1" s="0"/>
-      <c r="HZ1" s="0"/>
-      <c r="IA1" s="0"/>
-      <c r="IB1" s="0"/>
-      <c r="IC1" s="0"/>
-      <c r="ID1" s="0"/>
-      <c r="IE1" s="0"/>
-      <c r="IF1" s="0"/>
-      <c r="IG1" s="0"/>
-      <c r="IH1" s="0"/>
-      <c r="II1" s="0"/>
-      <c r="IJ1" s="0"/>
-      <c r="IK1" s="0"/>
-      <c r="IL1" s="0"/>
-      <c r="IM1" s="0"/>
-      <c r="IN1" s="0"/>
-      <c r="IO1" s="0"/>
-      <c r="IP1" s="0"/>
-      <c r="IQ1" s="0"/>
-      <c r="IR1" s="0"/>
-      <c r="IS1" s="0"/>
-      <c r="IT1" s="0"/>
-      <c r="IU1" s="0"/>
-      <c r="IV1" s="0"/>
-      <c r="IW1" s="0"/>
-      <c r="IX1" s="0"/>
-      <c r="IY1" s="0"/>
-      <c r="IZ1" s="0"/>
-      <c r="JA1" s="0"/>
-      <c r="JB1" s="0"/>
-      <c r="JC1" s="0"/>
-      <c r="JD1" s="0"/>
-      <c r="JE1" s="0"/>
-      <c r="JF1" s="0"/>
-      <c r="JG1" s="0"/>
-      <c r="JH1" s="0"/>
-      <c r="JI1" s="0"/>
-      <c r="JJ1" s="0"/>
-      <c r="JK1" s="0"/>
-      <c r="JL1" s="0"/>
-      <c r="JM1" s="0"/>
-      <c r="JN1" s="0"/>
-      <c r="JO1" s="0"/>
-      <c r="JP1" s="0"/>
-      <c r="JQ1" s="0"/>
-      <c r="JR1" s="0"/>
-      <c r="JS1" s="0"/>
-      <c r="JT1" s="0"/>
-      <c r="JU1" s="0"/>
-      <c r="JV1" s="0"/>
-      <c r="JW1" s="0"/>
-      <c r="JX1" s="0"/>
-      <c r="JY1" s="0"/>
-      <c r="JZ1" s="0"/>
-      <c r="KA1" s="0"/>
-      <c r="KB1" s="0"/>
-      <c r="KC1" s="0"/>
-      <c r="KD1" s="0"/>
-      <c r="KE1" s="0"/>
-      <c r="KF1" s="0"/>
-      <c r="KG1" s="0"/>
-      <c r="KH1" s="0"/>
-      <c r="KI1" s="0"/>
-      <c r="KJ1" s="0"/>
-      <c r="KK1" s="0"/>
-      <c r="KL1" s="0"/>
-      <c r="KM1" s="0"/>
-      <c r="KN1" s="0"/>
-      <c r="KO1" s="0"/>
-      <c r="KP1" s="0"/>
-      <c r="KQ1" s="0"/>
-      <c r="KR1" s="0"/>
-      <c r="KS1" s="0"/>
-      <c r="KT1" s="0"/>
-      <c r="KU1" s="0"/>
-      <c r="KV1" s="0"/>
-      <c r="KW1" s="0"/>
-      <c r="KX1" s="0"/>
-      <c r="KY1" s="0"/>
-      <c r="KZ1" s="0"/>
-      <c r="LA1" s="0"/>
-      <c r="LB1" s="0"/>
-      <c r="LC1" s="0"/>
-      <c r="LD1" s="0"/>
-      <c r="LE1" s="0"/>
-      <c r="LF1" s="0"/>
-      <c r="LG1" s="0"/>
-      <c r="LH1" s="0"/>
-      <c r="LI1" s="0"/>
-      <c r="LJ1" s="0"/>
-      <c r="LK1" s="0"/>
-      <c r="LL1" s="0"/>
-      <c r="LM1" s="0"/>
-      <c r="LN1" s="0"/>
-      <c r="LO1" s="0"/>
-      <c r="LP1" s="0"/>
-      <c r="LQ1" s="0"/>
-      <c r="LR1" s="0"/>
-      <c r="LS1" s="0"/>
-      <c r="LT1" s="0"/>
-      <c r="LU1" s="0"/>
-      <c r="LV1" s="0"/>
-      <c r="LW1" s="0"/>
-      <c r="LX1" s="0"/>
-      <c r="LY1" s="0"/>
-      <c r="LZ1" s="0"/>
-      <c r="MA1" s="0"/>
-      <c r="MB1" s="0"/>
-      <c r="MC1" s="0"/>
-      <c r="MD1" s="0"/>
-      <c r="ME1" s="0"/>
-      <c r="MF1" s="0"/>
-      <c r="MG1" s="0"/>
-      <c r="MH1" s="0"/>
-      <c r="MI1" s="0"/>
-      <c r="MJ1" s="0"/>
-      <c r="MK1" s="0"/>
-      <c r="ML1" s="0"/>
-      <c r="MM1" s="0"/>
-      <c r="MN1" s="0"/>
-      <c r="MO1" s="0"/>
-      <c r="MP1" s="0"/>
-      <c r="MQ1" s="0"/>
-      <c r="MR1" s="0"/>
-      <c r="MS1" s="0"/>
-      <c r="MT1" s="0"/>
-      <c r="MU1" s="0"/>
-      <c r="MV1" s="0"/>
-      <c r="MW1" s="0"/>
-      <c r="MX1" s="0"/>
-      <c r="MY1" s="0"/>
-      <c r="MZ1" s="0"/>
-      <c r="NA1" s="0"/>
-      <c r="NB1" s="0"/>
-      <c r="NC1" s="0"/>
-      <c r="ND1" s="0"/>
-      <c r="NE1" s="0"/>
-      <c r="NF1" s="0"/>
-      <c r="NG1" s="0"/>
-      <c r="NH1" s="0"/>
-      <c r="NI1" s="0"/>
-      <c r="NJ1" s="0"/>
-      <c r="NK1" s="0"/>
-      <c r="NL1" s="0"/>
-      <c r="NM1" s="0"/>
-      <c r="NN1" s="0"/>
-      <c r="NO1" s="0"/>
-      <c r="NP1" s="0"/>
-      <c r="NQ1" s="0"/>
-      <c r="NR1" s="0"/>
-      <c r="NS1" s="0"/>
-      <c r="NT1" s="0"/>
-      <c r="NU1" s="0"/>
-      <c r="NV1" s="0"/>
-      <c r="NW1" s="0"/>
-      <c r="NX1" s="0"/>
-      <c r="NY1" s="0"/>
-      <c r="NZ1" s="0"/>
-      <c r="OA1" s="0"/>
-      <c r="OB1" s="0"/>
-      <c r="OC1" s="0"/>
-      <c r="OD1" s="0"/>
-      <c r="OE1" s="0"/>
-      <c r="OF1" s="0"/>
-      <c r="OG1" s="0"/>
-      <c r="OH1" s="0"/>
-      <c r="OI1" s="0"/>
-      <c r="OJ1" s="0"/>
-      <c r="OK1" s="0"/>
-      <c r="OL1" s="0"/>
-      <c r="OM1" s="0"/>
-      <c r="ON1" s="0"/>
-      <c r="OO1" s="0"/>
-      <c r="OP1" s="0"/>
-      <c r="OQ1" s="0"/>
-      <c r="OR1" s="0"/>
-      <c r="OS1" s="0"/>
-      <c r="OT1" s="0"/>
-      <c r="OU1" s="0"/>
-      <c r="OV1" s="0"/>
-      <c r="OW1" s="0"/>
-      <c r="OX1" s="0"/>
-      <c r="OY1" s="0"/>
-      <c r="OZ1" s="0"/>
-      <c r="PA1" s="0"/>
-      <c r="PB1" s="0"/>
-      <c r="PC1" s="0"/>
-      <c r="PD1" s="0"/>
-      <c r="PE1" s="0"/>
-      <c r="PF1" s="0"/>
-      <c r="PG1" s="0"/>
-      <c r="PH1" s="0"/>
-      <c r="PI1" s="0"/>
-      <c r="PJ1" s="0"/>
-      <c r="PK1" s="0"/>
-      <c r="PL1" s="0"/>
-      <c r="PM1" s="0"/>
-      <c r="PN1" s="0"/>
-      <c r="PO1" s="0"/>
-      <c r="PP1" s="0"/>
-      <c r="PQ1" s="0"/>
-      <c r="PR1" s="0"/>
-      <c r="PS1" s="0"/>
-      <c r="PT1" s="0"/>
-      <c r="PU1" s="0"/>
-      <c r="PV1" s="0"/>
-      <c r="PW1" s="0"/>
-      <c r="PX1" s="0"/>
-      <c r="PY1" s="0"/>
-      <c r="PZ1" s="0"/>
-      <c r="QA1" s="0"/>
-      <c r="QB1" s="0"/>
-      <c r="QC1" s="0"/>
-      <c r="QD1" s="0"/>
-      <c r="QE1" s="0"/>
-      <c r="QF1" s="0"/>
-      <c r="QG1" s="0"/>
-      <c r="QH1" s="0"/>
-      <c r="QI1" s="0"/>
-      <c r="QJ1" s="0"/>
-      <c r="QK1" s="0"/>
-      <c r="QL1" s="0"/>
-      <c r="QM1" s="0"/>
-      <c r="QN1" s="0"/>
-      <c r="QO1" s="0"/>
-      <c r="QP1" s="0"/>
-      <c r="QQ1" s="0"/>
-      <c r="QR1" s="0"/>
-      <c r="QS1" s="0"/>
-      <c r="QT1" s="0"/>
-      <c r="QU1" s="0"/>
-      <c r="QV1" s="0"/>
-      <c r="QW1" s="0"/>
-      <c r="QX1" s="0"/>
-      <c r="QY1" s="0"/>
-      <c r="QZ1" s="0"/>
-      <c r="RA1" s="0"/>
-      <c r="RB1" s="0"/>
-      <c r="RC1" s="0"/>
-      <c r="RD1" s="0"/>
-      <c r="RE1" s="0"/>
-      <c r="RF1" s="0"/>
-      <c r="RG1" s="0"/>
-      <c r="RH1" s="0"/>
-      <c r="RI1" s="0"/>
-      <c r="RJ1" s="0"/>
-      <c r="RK1" s="0"/>
-      <c r="RL1" s="0"/>
-      <c r="RM1" s="0"/>
-      <c r="RN1" s="0"/>
-      <c r="RO1" s="0"/>
-      <c r="RP1" s="0"/>
-      <c r="RQ1" s="0"/>
-      <c r="RR1" s="0"/>
-      <c r="RS1" s="0"/>
-      <c r="RT1" s="0"/>
-      <c r="RU1" s="0"/>
-      <c r="RV1" s="0"/>
-      <c r="RW1" s="0"/>
-      <c r="RX1" s="0"/>
-      <c r="RY1" s="0"/>
-      <c r="RZ1" s="0"/>
-      <c r="SA1" s="0"/>
-      <c r="SB1" s="0"/>
-      <c r="SC1" s="0"/>
-      <c r="SD1" s="0"/>
-      <c r="SE1" s="0"/>
-      <c r="SF1" s="0"/>
-      <c r="SG1" s="0"/>
-      <c r="SH1" s="0"/>
-      <c r="SI1" s="0"/>
-      <c r="SJ1" s="0"/>
-      <c r="SK1" s="0"/>
-      <c r="SL1" s="0"/>
-      <c r="SM1" s="0"/>
-      <c r="SN1" s="0"/>
-      <c r="SO1" s="0"/>
-      <c r="SP1" s="0"/>
-      <c r="SQ1" s="0"/>
-      <c r="SR1" s="0"/>
-      <c r="SS1" s="0"/>
-      <c r="ST1" s="0"/>
-      <c r="SU1" s="0"/>
-      <c r="SV1" s="0"/>
-      <c r="SW1" s="0"/>
-      <c r="SX1" s="0"/>
-      <c r="SY1" s="0"/>
-      <c r="SZ1" s="0"/>
-      <c r="TA1" s="0"/>
-      <c r="TB1" s="0"/>
-      <c r="TC1" s="0"/>
-      <c r="TD1" s="0"/>
-      <c r="TE1" s="0"/>
-      <c r="TF1" s="0"/>
-      <c r="TG1" s="0"/>
-      <c r="TH1" s="0"/>
-      <c r="TI1" s="0"/>
-      <c r="TJ1" s="0"/>
-      <c r="TK1" s="0"/>
-      <c r="TL1" s="0"/>
-      <c r="TM1" s="0"/>
-      <c r="TN1" s="0"/>
-      <c r="TO1" s="0"/>
-      <c r="TP1" s="0"/>
-      <c r="TQ1" s="0"/>
-      <c r="TR1" s="0"/>
-      <c r="TS1" s="0"/>
-      <c r="TT1" s="0"/>
-      <c r="TU1" s="0"/>
-      <c r="TV1" s="0"/>
-      <c r="TW1" s="0"/>
-      <c r="TX1" s="0"/>
-      <c r="TY1" s="0"/>
-      <c r="TZ1" s="0"/>
-      <c r="UA1" s="0"/>
-      <c r="UB1" s="0"/>
-      <c r="UC1" s="0"/>
-      <c r="UD1" s="0"/>
-      <c r="UE1" s="0"/>
-      <c r="UF1" s="0"/>
-      <c r="UG1" s="0"/>
-      <c r="UH1" s="0"/>
-      <c r="UI1" s="0"/>
-      <c r="UJ1" s="0"/>
-      <c r="UK1" s="0"/>
-      <c r="UL1" s="0"/>
-      <c r="UM1" s="0"/>
-      <c r="UN1" s="0"/>
-      <c r="UO1" s="0"/>
-      <c r="UP1" s="0"/>
-      <c r="UQ1" s="0"/>
-      <c r="UR1" s="0"/>
-      <c r="US1" s="0"/>
-      <c r="UT1" s="0"/>
-      <c r="UU1" s="0"/>
-      <c r="UV1" s="0"/>
-      <c r="UW1" s="0"/>
-      <c r="UX1" s="0"/>
-      <c r="UY1" s="0"/>
-      <c r="UZ1" s="0"/>
-      <c r="VA1" s="0"/>
-      <c r="VB1" s="0"/>
-      <c r="VC1" s="0"/>
-      <c r="VD1" s="0"/>
-      <c r="VE1" s="0"/>
-      <c r="VF1" s="0"/>
-      <c r="VG1" s="0"/>
-      <c r="VH1" s="0"/>
-      <c r="VI1" s="0"/>
-      <c r="VJ1" s="0"/>
-      <c r="VK1" s="0"/>
-      <c r="VL1" s="0"/>
-      <c r="VM1" s="0"/>
-      <c r="VN1" s="0"/>
-      <c r="VO1" s="0"/>
-      <c r="VP1" s="0"/>
-      <c r="VQ1" s="0"/>
-      <c r="VR1" s="0"/>
-      <c r="VS1" s="0"/>
-      <c r="VT1" s="0"/>
-      <c r="VU1" s="0"/>
-      <c r="VV1" s="0"/>
-      <c r="VW1" s="0"/>
-      <c r="VX1" s="0"/>
-      <c r="VY1" s="0"/>
-      <c r="VZ1" s="0"/>
-      <c r="WA1" s="0"/>
-      <c r="WB1" s="0"/>
-      <c r="WC1" s="0"/>
-      <c r="WD1" s="0"/>
-      <c r="WE1" s="0"/>
-      <c r="WF1" s="0"/>
-      <c r="WG1" s="0"/>
-      <c r="WH1" s="0"/>
-      <c r="WI1" s="0"/>
-      <c r="WJ1" s="0"/>
-      <c r="WK1" s="0"/>
-      <c r="WL1" s="0"/>
-      <c r="WM1" s="0"/>
-      <c r="WN1" s="0"/>
-      <c r="WO1" s="0"/>
-      <c r="WP1" s="0"/>
-      <c r="WQ1" s="0"/>
-      <c r="WR1" s="0"/>
-      <c r="WS1" s="0"/>
-      <c r="WT1" s="0"/>
-      <c r="WU1" s="0"/>
-      <c r="WV1" s="0"/>
-      <c r="WW1" s="0"/>
-      <c r="WX1" s="0"/>
-      <c r="WY1" s="0"/>
-      <c r="WZ1" s="0"/>
-      <c r="XA1" s="0"/>
-      <c r="XB1" s="0"/>
-      <c r="XC1" s="0"/>
-      <c r="XD1" s="0"/>
-      <c r="XE1" s="0"/>
-      <c r="XF1" s="0"/>
-      <c r="XG1" s="0"/>
-      <c r="XH1" s="0"/>
-      <c r="XI1" s="0"/>
-      <c r="XJ1" s="0"/>
-      <c r="XK1" s="0"/>
-      <c r="XL1" s="0"/>
-      <c r="XM1" s="0"/>
-      <c r="XN1" s="0"/>
-      <c r="XO1" s="0"/>
-      <c r="XP1" s="0"/>
-      <c r="XQ1" s="0"/>
-      <c r="XR1" s="0"/>
-      <c r="XS1" s="0"/>
-      <c r="XT1" s="0"/>
-      <c r="XU1" s="0"/>
-      <c r="XV1" s="0"/>
-      <c r="XW1" s="0"/>
-      <c r="XX1" s="0"/>
-      <c r="XY1" s="0"/>
-      <c r="XZ1" s="0"/>
-      <c r="YA1" s="0"/>
-      <c r="YB1" s="0"/>
-      <c r="YC1" s="0"/>
-      <c r="YD1" s="0"/>
-      <c r="YE1" s="0"/>
-      <c r="YF1" s="0"/>
-      <c r="YG1" s="0"/>
-      <c r="YH1" s="0"/>
-      <c r="YI1" s="0"/>
-      <c r="YJ1" s="0"/>
-      <c r="YK1" s="0"/>
-      <c r="YL1" s="0"/>
-      <c r="YM1" s="0"/>
-      <c r="YN1" s="0"/>
-      <c r="YO1" s="0"/>
-      <c r="YP1" s="0"/>
-      <c r="YQ1" s="0"/>
-      <c r="YR1" s="0"/>
-      <c r="YS1" s="0"/>
-      <c r="YT1" s="0"/>
-      <c r="YU1" s="0"/>
-      <c r="YV1" s="0"/>
-      <c r="YW1" s="0"/>
-      <c r="YX1" s="0"/>
-      <c r="YY1" s="0"/>
-      <c r="YZ1" s="0"/>
-      <c r="ZA1" s="0"/>
-      <c r="ZB1" s="0"/>
-      <c r="ZC1" s="0"/>
-      <c r="ZD1" s="0"/>
-      <c r="ZE1" s="0"/>
-      <c r="ZF1" s="0"/>
-      <c r="ZG1" s="0"/>
-      <c r="ZH1" s="0"/>
-      <c r="ZI1" s="0"/>
-      <c r="ZJ1" s="0"/>
-      <c r="ZK1" s="0"/>
-      <c r="ZL1" s="0"/>
-      <c r="ZM1" s="0"/>
-      <c r="ZN1" s="0"/>
-      <c r="ZO1" s="0"/>
-      <c r="ZP1" s="0"/>
-      <c r="ZQ1" s="0"/>
-      <c r="ZR1" s="0"/>
-      <c r="ZS1" s="0"/>
-      <c r="ZT1" s="0"/>
-      <c r="ZU1" s="0"/>
-      <c r="ZV1" s="0"/>
-      <c r="ZW1" s="0"/>
-      <c r="ZX1" s="0"/>
-      <c r="ZY1" s="0"/>
-      <c r="ZZ1" s="0"/>
-      <c r="AAA1" s="0"/>
-      <c r="AAB1" s="0"/>
-      <c r="AAC1" s="0"/>
-      <c r="AAD1" s="0"/>
-      <c r="AAE1" s="0"/>
-      <c r="AAF1" s="0"/>
-      <c r="AAG1" s="0"/>
-      <c r="AAH1" s="0"/>
-      <c r="AAI1" s="0"/>
-      <c r="AAJ1" s="0"/>
-      <c r="AAK1" s="0"/>
-      <c r="AAL1" s="0"/>
-      <c r="AAM1" s="0"/>
-      <c r="AAN1" s="0"/>
-      <c r="AAO1" s="0"/>
-      <c r="AAP1" s="0"/>
-      <c r="AAQ1" s="0"/>
-      <c r="AAR1" s="0"/>
-      <c r="AAS1" s="0"/>
-      <c r="AAT1" s="0"/>
-      <c r="AAU1" s="0"/>
-      <c r="AAV1" s="0"/>
-      <c r="AAW1" s="0"/>
-      <c r="AAX1" s="0"/>
-      <c r="AAY1" s="0"/>
-      <c r="AAZ1" s="0"/>
-      <c r="ABA1" s="0"/>
-      <c r="ABB1" s="0"/>
-      <c r="ABC1" s="0"/>
-      <c r="ABD1" s="0"/>
-      <c r="ABE1" s="0"/>
-      <c r="ABF1" s="0"/>
-      <c r="ABG1" s="0"/>
-      <c r="ABH1" s="0"/>
-      <c r="ABI1" s="0"/>
-      <c r="ABJ1" s="0"/>
-      <c r="ABK1" s="0"/>
-      <c r="ABL1" s="0"/>
-      <c r="ABM1" s="0"/>
-      <c r="ABN1" s="0"/>
-      <c r="ABO1" s="0"/>
-      <c r="ABP1" s="0"/>
-      <c r="ABQ1" s="0"/>
-      <c r="ABR1" s="0"/>
-      <c r="ABS1" s="0"/>
-      <c r="ABT1" s="0"/>
-      <c r="ABU1" s="0"/>
-      <c r="ABV1" s="0"/>
-      <c r="ABW1" s="0"/>
-      <c r="ABX1" s="0"/>
-      <c r="ABY1" s="0"/>
-      <c r="ABZ1" s="0"/>
-      <c r="ACA1" s="0"/>
-      <c r="ACB1" s="0"/>
-      <c r="ACC1" s="0"/>
-      <c r="ACD1" s="0"/>
-      <c r="ACE1" s="0"/>
-      <c r="ACF1" s="0"/>
-      <c r="ACG1" s="0"/>
-      <c r="ACH1" s="0"/>
-      <c r="ACI1" s="0"/>
-      <c r="ACJ1" s="0"/>
-      <c r="ACK1" s="0"/>
-      <c r="ACL1" s="0"/>
-      <c r="ACM1" s="0"/>
-      <c r="ACN1" s="0"/>
-      <c r="ACO1" s="0"/>
-      <c r="ACP1" s="0"/>
-      <c r="ACQ1" s="0"/>
-      <c r="ACR1" s="0"/>
-      <c r="ACS1" s="0"/>
-      <c r="ACT1" s="0"/>
-      <c r="ACU1" s="0"/>
-      <c r="ACV1" s="0"/>
-      <c r="ACW1" s="0"/>
-      <c r="ACX1" s="0"/>
-      <c r="ACY1" s="0"/>
-      <c r="ACZ1" s="0"/>
-      <c r="ADA1" s="0"/>
-      <c r="ADB1" s="0"/>
-      <c r="ADC1" s="0"/>
-      <c r="ADD1" s="0"/>
-      <c r="ADE1" s="0"/>
-      <c r="ADF1" s="0"/>
-      <c r="ADG1" s="0"/>
-      <c r="ADH1" s="0"/>
-      <c r="ADI1" s="0"/>
-      <c r="ADJ1" s="0"/>
-      <c r="ADK1" s="0"/>
-      <c r="ADL1" s="0"/>
-      <c r="ADM1" s="0"/>
-      <c r="ADN1" s="0"/>
-      <c r="ADO1" s="0"/>
-      <c r="ADP1" s="0"/>
-      <c r="ADQ1" s="0"/>
-      <c r="ADR1" s="0"/>
-      <c r="ADS1" s="0"/>
-      <c r="ADT1" s="0"/>
-      <c r="ADU1" s="0"/>
-      <c r="ADV1" s="0"/>
-      <c r="ADW1" s="0"/>
-      <c r="ADX1" s="0"/>
-      <c r="ADY1" s="0"/>
-      <c r="ADZ1" s="0"/>
-      <c r="AEA1" s="0"/>
-      <c r="AEB1" s="0"/>
-      <c r="AEC1" s="0"/>
-      <c r="AED1" s="0"/>
-      <c r="AEE1" s="0"/>
-      <c r="AEF1" s="0"/>
-      <c r="AEG1" s="0"/>
-      <c r="AEH1" s="0"/>
-      <c r="AEI1" s="0"/>
-      <c r="AEJ1" s="0"/>
-      <c r="AEK1" s="0"/>
-      <c r="AEL1" s="0"/>
-      <c r="AEM1" s="0"/>
-      <c r="AEN1" s="0"/>
-      <c r="AEO1" s="0"/>
-      <c r="AEP1" s="0"/>
-      <c r="AEQ1" s="0"/>
-      <c r="AER1" s="0"/>
-      <c r="AES1" s="0"/>
-      <c r="AET1" s="0"/>
-      <c r="AEU1" s="0"/>
-      <c r="AEV1" s="0"/>
-      <c r="AEW1" s="0"/>
-      <c r="AEX1" s="0"/>
-      <c r="AEY1" s="0"/>
-      <c r="AEZ1" s="0"/>
-      <c r="AFA1" s="0"/>
-      <c r="AFB1" s="0"/>
-      <c r="AFC1" s="0"/>
-      <c r="AFD1" s="0"/>
-      <c r="AFE1" s="0"/>
-      <c r="AFF1" s="0"/>
-      <c r="AFG1" s="0"/>
-      <c r="AFH1" s="0"/>
-      <c r="AFI1" s="0"/>
-      <c r="AFJ1" s="0"/>
-      <c r="AFK1" s="0"/>
-      <c r="AFL1" s="0"/>
-      <c r="AFM1" s="0"/>
-      <c r="AFN1" s="0"/>
-      <c r="AFO1" s="0"/>
-      <c r="AFP1" s="0"/>
-      <c r="AFQ1" s="0"/>
-      <c r="AFR1" s="0"/>
-      <c r="AFS1" s="0"/>
-      <c r="AFT1" s="0"/>
-      <c r="AFU1" s="0"/>
-      <c r="AFV1" s="0"/>
-      <c r="AFW1" s="0"/>
-      <c r="AFX1" s="0"/>
-      <c r="AFY1" s="0"/>
-      <c r="AFZ1" s="0"/>
-      <c r="AGA1" s="0"/>
-      <c r="AGB1" s="0"/>
-      <c r="AGC1" s="0"/>
-      <c r="AGD1" s="0"/>
-      <c r="AGE1" s="0"/>
-      <c r="AGF1" s="0"/>
-      <c r="AGG1" s="0"/>
-      <c r="AGH1" s="0"/>
-      <c r="AGI1" s="0"/>
-      <c r="AGJ1" s="0"/>
-      <c r="AGK1" s="0"/>
-      <c r="AGL1" s="0"/>
-      <c r="AGM1" s="0"/>
-      <c r="AGN1" s="0"/>
-      <c r="AGO1" s="0"/>
-      <c r="AGP1" s="0"/>
-      <c r="AGQ1" s="0"/>
-      <c r="AGR1" s="0"/>
-      <c r="AGS1" s="0"/>
-      <c r="AGT1" s="0"/>
-      <c r="AGU1" s="0"/>
-      <c r="AGV1" s="0"/>
-      <c r="AGW1" s="0"/>
-      <c r="AGX1" s="0"/>
-      <c r="AGY1" s="0"/>
-      <c r="AGZ1" s="0"/>
-      <c r="AHA1" s="0"/>
-      <c r="AHB1" s="0"/>
-      <c r="AHC1" s="0"/>
-      <c r="AHD1" s="0"/>
-      <c r="AHE1" s="0"/>
-      <c r="AHF1" s="0"/>
-      <c r="AHG1" s="0"/>
-      <c r="AHH1" s="0"/>
-      <c r="AHI1" s="0"/>
-      <c r="AHJ1" s="0"/>
-      <c r="AHK1" s="0"/>
-      <c r="AHL1" s="0"/>
-      <c r="AHM1" s="0"/>
-      <c r="AHN1" s="0"/>
-      <c r="AHO1" s="0"/>
-      <c r="AHP1" s="0"/>
-      <c r="AHQ1" s="0"/>
-      <c r="AHR1" s="0"/>
-      <c r="AHS1" s="0"/>
-      <c r="AHT1" s="0"/>
-      <c r="AHU1" s="0"/>
-      <c r="AHV1" s="0"/>
-      <c r="AHW1" s="0"/>
-      <c r="AHX1" s="0"/>
-      <c r="AHY1" s="0"/>
-      <c r="AHZ1" s="0"/>
-      <c r="AIA1" s="0"/>
-      <c r="AIB1" s="0"/>
-      <c r="AIC1" s="0"/>
-      <c r="AID1" s="0"/>
-      <c r="AIE1" s="0"/>
-      <c r="AIF1" s="0"/>
-      <c r="AIG1" s="0"/>
-      <c r="AIH1" s="0"/>
-      <c r="AII1" s="0"/>
-      <c r="AIJ1" s="0"/>
-      <c r="AIK1" s="0"/>
-      <c r="AIL1" s="0"/>
-      <c r="AIM1" s="0"/>
-      <c r="AIN1" s="0"/>
-      <c r="AIO1" s="0"/>
-      <c r="AIP1" s="0"/>
-      <c r="AIQ1" s="0"/>
-      <c r="AIR1" s="0"/>
-      <c r="AIS1" s="0"/>
-      <c r="AIT1" s="0"/>
-      <c r="AIU1" s="0"/>
-      <c r="AIV1" s="0"/>
-      <c r="AIW1" s="0"/>
-      <c r="AIX1" s="0"/>
-      <c r="AIY1" s="0"/>
-      <c r="AIZ1" s="0"/>
-      <c r="AJA1" s="0"/>
-      <c r="AJB1" s="0"/>
-      <c r="AJC1" s="0"/>
-      <c r="AJD1" s="0"/>
-      <c r="AJE1" s="0"/>
-      <c r="AJF1" s="0"/>
-      <c r="AJG1" s="0"/>
-      <c r="AJH1" s="0"/>
-      <c r="AJI1" s="0"/>
-      <c r="AJJ1" s="0"/>
-      <c r="AJK1" s="0"/>
-      <c r="AJL1" s="0"/>
-      <c r="AJM1" s="0"/>
-      <c r="AJN1" s="0"/>
-      <c r="AJO1" s="0"/>
-      <c r="AJP1" s="0"/>
-      <c r="AJQ1" s="0"/>
-      <c r="AJR1" s="0"/>
-      <c r="AJS1" s="0"/>
-      <c r="AJT1" s="0"/>
-      <c r="AJU1" s="0"/>
-      <c r="AJV1" s="0"/>
-      <c r="AJW1" s="0"/>
-      <c r="AJX1" s="0"/>
-      <c r="AJY1" s="0"/>
-      <c r="AJZ1" s="0"/>
-      <c r="AKA1" s="0"/>
-      <c r="AKB1" s="0"/>
-      <c r="AKC1" s="0"/>
-      <c r="AKD1" s="0"/>
-      <c r="AKE1" s="0"/>
-      <c r="AKF1" s="0"/>
-      <c r="AKG1" s="0"/>
-      <c r="AKH1" s="0"/>
-      <c r="AKI1" s="0"/>
-      <c r="AKJ1" s="0"/>
-      <c r="AKK1" s="0"/>
-      <c r="AKL1" s="0"/>
-      <c r="AKM1" s="0"/>
-      <c r="AKN1" s="0"/>
-      <c r="AKO1" s="0"/>
-      <c r="AKP1" s="0"/>
-      <c r="AKQ1" s="0"/>
-      <c r="AKR1" s="0"/>
-      <c r="AKS1" s="0"/>
-      <c r="AKT1" s="0"/>
-      <c r="AKU1" s="0"/>
-      <c r="AKV1" s="0"/>
-      <c r="AKW1" s="0"/>
-      <c r="AKX1" s="0"/>
-      <c r="AKY1" s="0"/>
-      <c r="AKZ1" s="0"/>
-      <c r="ALA1" s="0"/>
-      <c r="ALB1" s="0"/>
-      <c r="ALC1" s="0"/>
-      <c r="ALD1" s="0"/>
-      <c r="ALE1" s="0"/>
-      <c r="ALF1" s="0"/>
-      <c r="ALG1" s="0"/>
-      <c r="ALH1" s="0"/>
-      <c r="ALI1" s="0"/>
-      <c r="ALJ1" s="0"/>
-      <c r="ALK1" s="0"/>
-      <c r="ALL1" s="0"/>
-      <c r="ALM1" s="0"/>
-      <c r="ALN1" s="0"/>
-      <c r="ALO1" s="0"/>
-      <c r="ALP1" s="0"/>
-      <c r="ALQ1" s="0"/>
-      <c r="ALR1" s="0"/>
-      <c r="ALS1" s="0"/>
-      <c r="ALT1" s="0"/>
-      <c r="ALU1" s="0"/>
-      <c r="ALV1" s="0"/>
-      <c r="ALW1" s="0"/>
-      <c r="ALX1" s="0"/>
-      <c r="ALY1" s="0"/>
-      <c r="ALZ1" s="0"/>
-      <c r="AMA1" s="0"/>
-      <c r="AMB1" s="0"/>
-      <c r="AMC1" s="0"/>
-      <c r="AMD1" s="0"/>
-      <c r="AME1" s="0"/>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+      <c r="BB1"/>
+      <c r="BC1"/>
+      <c r="BD1"/>
+      <c r="BE1"/>
+      <c r="BF1"/>
+      <c r="BG1"/>
+      <c r="BH1"/>
+      <c r="BI1"/>
+      <c r="BJ1"/>
+      <c r="BK1"/>
+      <c r="BL1"/>
+      <c r="BM1"/>
+      <c r="BN1"/>
+      <c r="BO1"/>
+      <c r="BP1"/>
+      <c r="BQ1"/>
+      <c r="BR1"/>
+      <c r="BS1"/>
+      <c r="BT1"/>
+      <c r="BU1"/>
+      <c r="BV1"/>
+      <c r="BW1"/>
+      <c r="BX1"/>
+      <c r="BY1"/>
+      <c r="BZ1"/>
+      <c r="CA1"/>
+      <c r="CB1"/>
+      <c r="CC1"/>
+      <c r="CD1"/>
+      <c r="CE1"/>
+      <c r="CF1"/>
+      <c r="CG1"/>
+      <c r="CH1"/>
+      <c r="CI1"/>
+      <c r="CJ1"/>
+      <c r="CK1"/>
+      <c r="CL1"/>
+      <c r="CM1"/>
+      <c r="CN1"/>
+      <c r="CO1"/>
+      <c r="CP1"/>
+      <c r="CQ1"/>
+      <c r="CR1"/>
+      <c r="CS1"/>
+      <c r="CT1"/>
+      <c r="CU1"/>
+      <c r="CV1"/>
+      <c r="CW1"/>
+      <c r="CX1"/>
+      <c r="CY1"/>
+      <c r="CZ1"/>
+      <c r="DA1"/>
+      <c r="DB1"/>
+      <c r="DC1"/>
+      <c r="DD1"/>
+      <c r="DE1"/>
+      <c r="DF1"/>
+      <c r="DG1"/>
+      <c r="DH1"/>
+      <c r="DI1"/>
+      <c r="DJ1"/>
+      <c r="DK1"/>
+      <c r="DL1"/>
+      <c r="DM1"/>
+      <c r="DN1"/>
+      <c r="DO1"/>
+      <c r="DP1"/>
+      <c r="DQ1"/>
+      <c r="DR1"/>
+      <c r="DS1"/>
+      <c r="DT1"/>
+      <c r="DU1"/>
+      <c r="DV1"/>
+      <c r="DW1"/>
+      <c r="DX1"/>
+      <c r="DY1"/>
+      <c r="DZ1"/>
+      <c r="EA1"/>
+      <c r="EB1"/>
+      <c r="EC1"/>
+      <c r="ED1"/>
+      <c r="EE1"/>
+      <c r="EF1"/>
+      <c r="EG1"/>
+      <c r="EH1"/>
+      <c r="EI1"/>
+      <c r="EJ1"/>
+      <c r="EK1"/>
+      <c r="EL1"/>
+      <c r="EM1"/>
+      <c r="EN1"/>
+      <c r="EO1"/>
+      <c r="EP1"/>
+      <c r="EQ1"/>
+      <c r="ER1"/>
+      <c r="ES1"/>
+      <c r="ET1"/>
+      <c r="EU1"/>
+      <c r="EV1"/>
+      <c r="EW1"/>
+      <c r="EX1"/>
+      <c r="EY1"/>
+      <c r="EZ1"/>
+      <c r="FA1"/>
+      <c r="FB1"/>
+      <c r="FC1"/>
+      <c r="FD1"/>
+      <c r="FE1"/>
+      <c r="FF1"/>
+      <c r="FG1"/>
+      <c r="FH1"/>
+      <c r="FI1"/>
+      <c r="FJ1"/>
+      <c r="FK1"/>
+      <c r="FL1"/>
+      <c r="FM1"/>
+      <c r="FN1"/>
+      <c r="FO1"/>
+      <c r="FP1"/>
+      <c r="FQ1"/>
+      <c r="FR1"/>
+      <c r="FS1"/>
+      <c r="FT1"/>
+      <c r="FU1"/>
+      <c r="FV1"/>
+      <c r="FW1"/>
+      <c r="FX1"/>
+      <c r="FY1"/>
+      <c r="FZ1"/>
+      <c r="GA1"/>
+      <c r="GB1"/>
+      <c r="GC1"/>
+      <c r="GD1"/>
+      <c r="GE1"/>
+      <c r="GF1"/>
+      <c r="GG1"/>
+      <c r="GH1"/>
+      <c r="GI1"/>
+      <c r="GJ1"/>
+      <c r="GK1"/>
+      <c r="GL1"/>
+      <c r="GM1"/>
+      <c r="GN1"/>
+      <c r="GO1"/>
+      <c r="GP1"/>
+      <c r="GQ1"/>
+      <c r="GR1"/>
+      <c r="GS1"/>
+      <c r="GT1"/>
+      <c r="GU1"/>
+      <c r="GV1"/>
+      <c r="GW1"/>
+      <c r="GX1"/>
+      <c r="GY1"/>
+      <c r="GZ1"/>
+      <c r="HA1"/>
+      <c r="HB1"/>
+      <c r="HC1"/>
+      <c r="HD1"/>
+      <c r="HE1"/>
+      <c r="HF1"/>
+      <c r="HG1"/>
+      <c r="HH1"/>
+      <c r="HI1"/>
+      <c r="HJ1"/>
+      <c r="HK1"/>
+      <c r="HL1"/>
+      <c r="HM1"/>
+      <c r="HN1"/>
+      <c r="HO1"/>
+      <c r="HP1"/>
+      <c r="HQ1"/>
+      <c r="HR1"/>
+      <c r="HS1"/>
+      <c r="HT1"/>
+      <c r="HU1"/>
+      <c r="HV1"/>
+      <c r="HW1"/>
+      <c r="HX1"/>
+      <c r="HY1"/>
+      <c r="HZ1"/>
+      <c r="IA1"/>
+      <c r="IB1"/>
+      <c r="IC1"/>
+      <c r="ID1"/>
+      <c r="IE1"/>
+      <c r="IF1"/>
+      <c r="IG1"/>
+      <c r="IH1"/>
+      <c r="II1"/>
+      <c r="IJ1"/>
+      <c r="IK1"/>
+      <c r="IL1"/>
+      <c r="IM1"/>
+      <c r="IN1"/>
+      <c r="IO1"/>
+      <c r="IP1"/>
+      <c r="IQ1"/>
+      <c r="IR1"/>
+      <c r="IS1"/>
+      <c r="IT1"/>
+      <c r="IU1"/>
+      <c r="IV1"/>
+      <c r="IW1"/>
+      <c r="IX1"/>
+      <c r="IY1"/>
+      <c r="IZ1"/>
+      <c r="JA1"/>
+      <c r="JB1"/>
+      <c r="JC1"/>
+      <c r="JD1"/>
+      <c r="JE1"/>
+      <c r="JF1"/>
+      <c r="JG1"/>
+      <c r="JH1"/>
+      <c r="JI1"/>
+      <c r="JJ1"/>
+      <c r="JK1"/>
+      <c r="JL1"/>
+      <c r="JM1"/>
+      <c r="JN1"/>
+      <c r="JO1"/>
+      <c r="JP1"/>
+      <c r="JQ1"/>
+      <c r="JR1"/>
+      <c r="JS1"/>
+      <c r="JT1"/>
+      <c r="JU1"/>
+      <c r="JV1"/>
+      <c r="JW1"/>
+      <c r="JX1"/>
+      <c r="JY1"/>
+      <c r="JZ1"/>
+      <c r="KA1"/>
+      <c r="KB1"/>
+      <c r="KC1"/>
+      <c r="KD1"/>
+      <c r="KE1"/>
+      <c r="KF1"/>
+      <c r="KG1"/>
+      <c r="KH1"/>
+      <c r="KI1"/>
+      <c r="KJ1"/>
+      <c r="KK1"/>
+      <c r="KL1"/>
+      <c r="KM1"/>
+      <c r="KN1"/>
+      <c r="KO1"/>
+      <c r="KP1"/>
+      <c r="KQ1"/>
+      <c r="KR1"/>
+      <c r="KS1"/>
+      <c r="KT1"/>
+      <c r="KU1"/>
+      <c r="KV1"/>
+      <c r="KW1"/>
+      <c r="KX1"/>
+      <c r="KY1"/>
+      <c r="KZ1"/>
+      <c r="LA1"/>
+      <c r="LB1"/>
+      <c r="LC1"/>
+      <c r="LD1"/>
+      <c r="LE1"/>
+      <c r="LF1"/>
+      <c r="LG1"/>
+      <c r="LH1"/>
+      <c r="LI1"/>
+      <c r="LJ1"/>
+      <c r="LK1"/>
+      <c r="LL1"/>
+      <c r="LM1"/>
+      <c r="LN1"/>
+      <c r="LO1"/>
+      <c r="LP1"/>
+      <c r="LQ1"/>
+      <c r="LR1"/>
+      <c r="LS1"/>
+      <c r="LT1"/>
+      <c r="LU1"/>
+      <c r="LV1"/>
+      <c r="LW1"/>
+      <c r="LX1"/>
+      <c r="LY1"/>
+      <c r="LZ1"/>
+      <c r="MA1"/>
+      <c r="MB1"/>
+      <c r="MC1"/>
+      <c r="MD1"/>
+      <c r="ME1"/>
+      <c r="MF1"/>
+      <c r="MG1"/>
+      <c r="MH1"/>
+      <c r="MI1"/>
+      <c r="MJ1"/>
+      <c r="MK1"/>
+      <c r="ML1"/>
+      <c r="MM1"/>
+      <c r="MN1"/>
+      <c r="MO1"/>
+      <c r="MP1"/>
+      <c r="MQ1"/>
+      <c r="MR1"/>
+      <c r="MS1"/>
+      <c r="MT1"/>
+      <c r="MU1"/>
+      <c r="MV1"/>
+      <c r="MW1"/>
+      <c r="MX1"/>
+      <c r="MY1"/>
+      <c r="MZ1"/>
+      <c r="NA1"/>
+      <c r="NB1"/>
+      <c r="NC1"/>
+      <c r="ND1"/>
+      <c r="NE1"/>
+      <c r="NF1"/>
+      <c r="NG1"/>
+      <c r="NH1"/>
+      <c r="NI1"/>
+      <c r="NJ1"/>
+      <c r="NK1"/>
+      <c r="NL1"/>
+      <c r="NM1"/>
+      <c r="NN1"/>
+      <c r="NO1"/>
+      <c r="NP1"/>
+      <c r="NQ1"/>
+      <c r="NR1"/>
+      <c r="NS1"/>
+      <c r="NT1"/>
+      <c r="NU1"/>
+      <c r="NV1"/>
+      <c r="NW1"/>
+      <c r="NX1"/>
+      <c r="NY1"/>
+      <c r="NZ1"/>
+      <c r="OA1"/>
+      <c r="OB1"/>
+      <c r="OC1"/>
+      <c r="OD1"/>
+      <c r="OE1"/>
+      <c r="OF1"/>
+      <c r="OG1"/>
+      <c r="OH1"/>
+      <c r="OI1"/>
+      <c r="OJ1"/>
+      <c r="OK1"/>
+      <c r="OL1"/>
+      <c r="OM1"/>
+      <c r="ON1"/>
+      <c r="OO1"/>
+      <c r="OP1"/>
+      <c r="OQ1"/>
+      <c r="OR1"/>
+      <c r="OS1"/>
+      <c r="OT1"/>
+      <c r="OU1"/>
+      <c r="OV1"/>
+      <c r="OW1"/>
+      <c r="OX1"/>
+      <c r="OY1"/>
+      <c r="OZ1"/>
+      <c r="PA1"/>
+      <c r="PB1"/>
+      <c r="PC1"/>
+      <c r="PD1"/>
+      <c r="PE1"/>
+      <c r="PF1"/>
+      <c r="PG1"/>
+      <c r="PH1"/>
+      <c r="PI1"/>
+      <c r="PJ1"/>
+      <c r="PK1"/>
+      <c r="PL1"/>
+      <c r="PM1"/>
+      <c r="PN1"/>
+      <c r="PO1"/>
+      <c r="PP1"/>
+      <c r="PQ1"/>
+      <c r="PR1"/>
+      <c r="PS1"/>
+      <c r="PT1"/>
+      <c r="PU1"/>
+      <c r="PV1"/>
+      <c r="PW1"/>
+      <c r="PX1"/>
+      <c r="PY1"/>
+      <c r="PZ1"/>
+      <c r="QA1"/>
+      <c r="QB1"/>
+      <c r="QC1"/>
+      <c r="QD1"/>
+      <c r="QE1"/>
+      <c r="QF1"/>
+      <c r="QG1"/>
+      <c r="QH1"/>
+      <c r="QI1"/>
+      <c r="QJ1"/>
+      <c r="QK1"/>
+      <c r="QL1"/>
+      <c r="QM1"/>
+      <c r="QN1"/>
+      <c r="QO1"/>
+      <c r="QP1"/>
+      <c r="QQ1"/>
+      <c r="QR1"/>
+      <c r="QS1"/>
+      <c r="QT1"/>
+      <c r="QU1"/>
+      <c r="QV1"/>
+      <c r="QW1"/>
+      <c r="QX1"/>
+      <c r="QY1"/>
+      <c r="QZ1"/>
+      <c r="RA1"/>
+      <c r="RB1"/>
+      <c r="RC1"/>
+      <c r="RD1"/>
+      <c r="RE1"/>
+      <c r="RF1"/>
+      <c r="RG1"/>
+      <c r="RH1"/>
+      <c r="RI1"/>
+      <c r="RJ1"/>
+      <c r="RK1"/>
+      <c r="RL1"/>
+      <c r="RM1"/>
+      <c r="RN1"/>
+      <c r="RO1"/>
+      <c r="RP1"/>
+      <c r="RQ1"/>
+      <c r="RR1"/>
+      <c r="RS1"/>
+      <c r="RT1"/>
+      <c r="RU1"/>
+      <c r="RV1"/>
+      <c r="RW1"/>
+      <c r="RX1"/>
+      <c r="RY1"/>
+      <c r="RZ1"/>
+      <c r="SA1"/>
+      <c r="SB1"/>
+      <c r="SC1"/>
+      <c r="SD1"/>
+      <c r="SE1"/>
+      <c r="SF1"/>
+      <c r="SG1"/>
+      <c r="SH1"/>
+      <c r="SI1"/>
+      <c r="SJ1"/>
+      <c r="SK1"/>
+      <c r="SL1"/>
+      <c r="SM1"/>
+      <c r="SN1"/>
+      <c r="SO1"/>
+      <c r="SP1"/>
+      <c r="SQ1"/>
+      <c r="SR1"/>
+      <c r="SS1"/>
+      <c r="ST1"/>
+      <c r="SU1"/>
+      <c r="SV1"/>
+      <c r="SW1"/>
+      <c r="SX1"/>
+      <c r="SY1"/>
+      <c r="SZ1"/>
+      <c r="TA1"/>
+      <c r="TB1"/>
+      <c r="TC1"/>
+      <c r="TD1"/>
+      <c r="TE1"/>
+      <c r="TF1"/>
+      <c r="TG1"/>
+      <c r="TH1"/>
+      <c r="TI1"/>
+      <c r="TJ1"/>
+      <c r="TK1"/>
+      <c r="TL1"/>
+      <c r="TM1"/>
+      <c r="TN1"/>
+      <c r="TO1"/>
+      <c r="TP1"/>
+      <c r="TQ1"/>
+      <c r="TR1"/>
+      <c r="TS1"/>
+      <c r="TT1"/>
+      <c r="TU1"/>
+      <c r="TV1"/>
+      <c r="TW1"/>
+      <c r="TX1"/>
+      <c r="TY1"/>
+      <c r="TZ1"/>
+      <c r="UA1"/>
+      <c r="UB1"/>
+      <c r="UC1"/>
+      <c r="UD1"/>
+      <c r="UE1"/>
+      <c r="UF1"/>
+      <c r="UG1"/>
+      <c r="UH1"/>
+      <c r="UI1"/>
+      <c r="UJ1"/>
+      <c r="UK1"/>
+      <c r="UL1"/>
+      <c r="UM1"/>
+      <c r="UN1"/>
+      <c r="UO1"/>
+      <c r="UP1"/>
+      <c r="UQ1"/>
+      <c r="UR1"/>
+      <c r="US1"/>
+      <c r="UT1"/>
+      <c r="UU1"/>
+      <c r="UV1"/>
+      <c r="UW1"/>
+      <c r="UX1"/>
+      <c r="UY1"/>
+      <c r="UZ1"/>
+      <c r="VA1"/>
+      <c r="VB1"/>
+      <c r="VC1"/>
+      <c r="VD1"/>
+      <c r="VE1"/>
+      <c r="VF1"/>
+      <c r="VG1"/>
+      <c r="VH1"/>
+      <c r="VI1"/>
+      <c r="VJ1"/>
+      <c r="VK1"/>
+      <c r="VL1"/>
+      <c r="VM1"/>
+      <c r="VN1"/>
+      <c r="VO1"/>
+      <c r="VP1"/>
+      <c r="VQ1"/>
+      <c r="VR1"/>
+      <c r="VS1"/>
+      <c r="VT1"/>
+      <c r="VU1"/>
+      <c r="VV1"/>
+      <c r="VW1"/>
+      <c r="VX1"/>
+      <c r="VY1"/>
+      <c r="VZ1"/>
+      <c r="WA1"/>
+      <c r="WB1"/>
+      <c r="WC1"/>
+      <c r="WD1"/>
+      <c r="WE1"/>
+      <c r="WF1"/>
+      <c r="WG1"/>
+      <c r="WH1"/>
+      <c r="WI1"/>
+      <c r="WJ1"/>
+      <c r="WK1"/>
+      <c r="WL1"/>
+      <c r="WM1"/>
+      <c r="WN1"/>
+      <c r="WO1"/>
+      <c r="WP1"/>
+      <c r="WQ1"/>
+      <c r="WR1"/>
+      <c r="WS1"/>
+      <c r="WT1"/>
+      <c r="WU1"/>
+      <c r="WV1"/>
+      <c r="WW1"/>
+      <c r="WX1"/>
+      <c r="WY1"/>
+      <c r="WZ1"/>
+      <c r="XA1"/>
+      <c r="XB1"/>
+      <c r="XC1"/>
+      <c r="XD1"/>
+      <c r="XE1"/>
+      <c r="XF1"/>
+      <c r="XG1"/>
+      <c r="XH1"/>
+      <c r="XI1"/>
+      <c r="XJ1"/>
+      <c r="XK1"/>
+      <c r="XL1"/>
+      <c r="XM1"/>
+      <c r="XN1"/>
+      <c r="XO1"/>
+      <c r="XP1"/>
+      <c r="XQ1"/>
+      <c r="XR1"/>
+      <c r="XS1"/>
+      <c r="XT1"/>
+      <c r="XU1"/>
+      <c r="XV1"/>
+      <c r="XW1"/>
+      <c r="XX1"/>
+      <c r="XY1"/>
+      <c r="XZ1"/>
+      <c r="YA1"/>
+      <c r="YB1"/>
+      <c r="YC1"/>
+      <c r="YD1"/>
+      <c r="YE1"/>
+      <c r="YF1"/>
+      <c r="YG1"/>
+      <c r="YH1"/>
+      <c r="YI1"/>
+      <c r="YJ1"/>
+      <c r="YK1"/>
+      <c r="YL1"/>
+      <c r="YM1"/>
+      <c r="YN1"/>
+      <c r="YO1"/>
+      <c r="YP1"/>
+      <c r="YQ1"/>
+      <c r="YR1"/>
+      <c r="YS1"/>
+      <c r="YT1"/>
+      <c r="YU1"/>
+      <c r="YV1"/>
+      <c r="YW1"/>
+      <c r="YX1"/>
+      <c r="YY1"/>
+      <c r="YZ1"/>
+      <c r="ZA1"/>
+      <c r="ZB1"/>
+      <c r="ZC1"/>
+      <c r="ZD1"/>
+      <c r="ZE1"/>
+      <c r="ZF1"/>
+      <c r="ZG1"/>
+      <c r="ZH1"/>
+      <c r="ZI1"/>
+      <c r="ZJ1"/>
+      <c r="ZK1"/>
+      <c r="ZL1"/>
+      <c r="ZM1"/>
+      <c r="ZN1"/>
+      <c r="ZO1"/>
+      <c r="ZP1"/>
+      <c r="ZQ1"/>
+      <c r="ZR1"/>
+      <c r="ZS1"/>
+      <c r="ZT1"/>
+      <c r="ZU1"/>
+      <c r="ZV1"/>
+      <c r="ZW1"/>
+      <c r="ZX1"/>
+      <c r="ZY1"/>
+      <c r="ZZ1"/>
+      <c r="AAA1"/>
+      <c r="AAB1"/>
+      <c r="AAC1"/>
+      <c r="AAD1"/>
+      <c r="AAE1"/>
+      <c r="AAF1"/>
+      <c r="AAG1"/>
+      <c r="AAH1"/>
+      <c r="AAI1"/>
+      <c r="AAJ1"/>
+      <c r="AAK1"/>
+      <c r="AAL1"/>
+      <c r="AAM1"/>
+      <c r="AAN1"/>
+      <c r="AAO1"/>
+      <c r="AAP1"/>
+      <c r="AAQ1"/>
+      <c r="AAR1"/>
+      <c r="AAS1"/>
+      <c r="AAT1"/>
+      <c r="AAU1"/>
+      <c r="AAV1"/>
+      <c r="AAW1"/>
+      <c r="AAX1"/>
+      <c r="AAY1"/>
+      <c r="AAZ1"/>
+      <c r="ABA1"/>
+      <c r="ABB1"/>
+      <c r="ABC1"/>
+      <c r="ABD1"/>
+      <c r="ABE1"/>
+      <c r="ABF1"/>
+      <c r="ABG1"/>
+      <c r="ABH1"/>
+      <c r="ABI1"/>
+      <c r="ABJ1"/>
+      <c r="ABK1"/>
+      <c r="ABL1"/>
+      <c r="ABM1"/>
+      <c r="ABN1"/>
+      <c r="ABO1"/>
+      <c r="ABP1"/>
+      <c r="ABQ1"/>
+      <c r="ABR1"/>
+      <c r="ABS1"/>
+      <c r="ABT1"/>
+      <c r="ABU1"/>
+      <c r="ABV1"/>
+      <c r="ABW1"/>
+      <c r="ABX1"/>
+      <c r="ABY1"/>
+      <c r="ABZ1"/>
+      <c r="ACA1"/>
+      <c r="ACB1"/>
+      <c r="ACC1"/>
+      <c r="ACD1"/>
+      <c r="ACE1"/>
+      <c r="ACF1"/>
+      <c r="ACG1"/>
+      <c r="ACH1"/>
+      <c r="ACI1"/>
+      <c r="ACJ1"/>
+      <c r="ACK1"/>
+      <c r="ACL1"/>
+      <c r="ACM1"/>
+      <c r="ACN1"/>
+      <c r="ACO1"/>
+      <c r="ACP1"/>
+      <c r="ACQ1"/>
+      <c r="ACR1"/>
+      <c r="ACS1"/>
+      <c r="ACT1"/>
+      <c r="ACU1"/>
+      <c r="ACV1"/>
+      <c r="ACW1"/>
+      <c r="ACX1"/>
+      <c r="ACY1"/>
+      <c r="ACZ1"/>
+      <c r="ADA1"/>
+      <c r="ADB1"/>
+      <c r="ADC1"/>
+      <c r="ADD1"/>
+      <c r="ADE1"/>
+      <c r="ADF1"/>
+      <c r="ADG1"/>
+      <c r="ADH1"/>
+      <c r="ADI1"/>
+      <c r="ADJ1"/>
+      <c r="ADK1"/>
+      <c r="ADL1"/>
+      <c r="ADM1"/>
+      <c r="ADN1"/>
+      <c r="ADO1"/>
+      <c r="ADP1"/>
+      <c r="ADQ1"/>
+      <c r="ADR1"/>
+      <c r="ADS1"/>
+      <c r="ADT1"/>
+      <c r="ADU1"/>
+      <c r="ADV1"/>
+      <c r="ADW1"/>
+      <c r="ADX1"/>
+      <c r="ADY1"/>
+      <c r="ADZ1"/>
+      <c r="AEA1"/>
+      <c r="AEB1"/>
+      <c r="AEC1"/>
+      <c r="AED1"/>
+      <c r="AEE1"/>
+      <c r="AEF1"/>
+      <c r="AEG1"/>
+      <c r="AEH1"/>
+      <c r="AEI1"/>
+      <c r="AEJ1"/>
+      <c r="AEK1"/>
+      <c r="AEL1"/>
+      <c r="AEM1"/>
+      <c r="AEN1"/>
+      <c r="AEO1"/>
+      <c r="AEP1"/>
+      <c r="AEQ1"/>
+      <c r="AER1"/>
+      <c r="AES1"/>
+      <c r="AET1"/>
+      <c r="AEU1"/>
+      <c r="AEV1"/>
+      <c r="AEW1"/>
+      <c r="AEX1"/>
+      <c r="AEY1"/>
+      <c r="AEZ1"/>
+      <c r="AFA1"/>
+      <c r="AFB1"/>
+      <c r="AFC1"/>
+      <c r="AFD1"/>
+      <c r="AFE1"/>
+      <c r="AFF1"/>
+      <c r="AFG1"/>
+      <c r="AFH1"/>
+      <c r="AFI1"/>
+      <c r="AFJ1"/>
+      <c r="AFK1"/>
+      <c r="AFL1"/>
+      <c r="AFM1"/>
+      <c r="AFN1"/>
+      <c r="AFO1"/>
+      <c r="AFP1"/>
+      <c r="AFQ1"/>
+      <c r="AFR1"/>
+      <c r="AFS1"/>
+      <c r="AFT1"/>
+      <c r="AFU1"/>
+      <c r="AFV1"/>
+      <c r="AFW1"/>
+      <c r="AFX1"/>
+      <c r="AFY1"/>
+      <c r="AFZ1"/>
+      <c r="AGA1"/>
+      <c r="AGB1"/>
+      <c r="AGC1"/>
+      <c r="AGD1"/>
+      <c r="AGE1"/>
+      <c r="AGF1"/>
+      <c r="AGG1"/>
+      <c r="AGH1"/>
+      <c r="AGI1"/>
+      <c r="AGJ1"/>
+      <c r="AGK1"/>
+      <c r="AGL1"/>
+      <c r="AGM1"/>
+      <c r="AGN1"/>
+      <c r="AGO1"/>
+      <c r="AGP1"/>
+      <c r="AGQ1"/>
+      <c r="AGR1"/>
+      <c r="AGS1"/>
+      <c r="AGT1"/>
+      <c r="AGU1"/>
+      <c r="AGV1"/>
+      <c r="AGW1"/>
+      <c r="AGX1"/>
+      <c r="AGY1"/>
+      <c r="AGZ1"/>
+      <c r="AHA1"/>
+      <c r="AHB1"/>
+      <c r="AHC1"/>
+      <c r="AHD1"/>
+      <c r="AHE1"/>
+      <c r="AHF1"/>
+      <c r="AHG1"/>
+      <c r="AHH1"/>
+      <c r="AHI1"/>
+      <c r="AHJ1"/>
+      <c r="AHK1"/>
+      <c r="AHL1"/>
+      <c r="AHM1"/>
+      <c r="AHN1"/>
+      <c r="AHO1"/>
+      <c r="AHP1"/>
+      <c r="AHQ1"/>
+      <c r="AHR1"/>
+      <c r="AHS1"/>
+      <c r="AHT1"/>
+      <c r="AHU1"/>
+      <c r="AHV1"/>
+      <c r="AHW1"/>
+      <c r="AHX1"/>
+      <c r="AHY1"/>
+      <c r="AHZ1"/>
+      <c r="AIA1"/>
+      <c r="AIB1"/>
+      <c r="AIC1"/>
+      <c r="AID1"/>
+      <c r="AIE1"/>
+      <c r="AIF1"/>
+      <c r="AIG1"/>
+      <c r="AIH1"/>
+      <c r="AII1"/>
+      <c r="AIJ1"/>
+      <c r="AIK1"/>
+      <c r="AIL1"/>
+      <c r="AIM1"/>
+      <c r="AIN1"/>
+      <c r="AIO1"/>
+      <c r="AIP1"/>
+      <c r="AIQ1"/>
+      <c r="AIR1"/>
+      <c r="AIS1"/>
+      <c r="AIT1"/>
+      <c r="AIU1"/>
+      <c r="AIV1"/>
+      <c r="AIW1"/>
+      <c r="AIX1"/>
+      <c r="AIY1"/>
+      <c r="AIZ1"/>
+      <c r="AJA1"/>
+      <c r="AJB1"/>
+      <c r="AJC1"/>
+      <c r="AJD1"/>
+      <c r="AJE1"/>
+      <c r="AJF1"/>
+      <c r="AJG1"/>
+      <c r="AJH1"/>
+      <c r="AJI1"/>
+      <c r="AJJ1"/>
+      <c r="AJK1"/>
+      <c r="AJL1"/>
+      <c r="AJM1"/>
+      <c r="AJN1"/>
+      <c r="AJO1"/>
+      <c r="AJP1"/>
+      <c r="AJQ1"/>
+      <c r="AJR1"/>
+      <c r="AJS1"/>
+      <c r="AJT1"/>
+      <c r="AJU1"/>
+      <c r="AJV1"/>
+      <c r="AJW1"/>
+      <c r="AJX1"/>
+      <c r="AJY1"/>
+      <c r="AJZ1"/>
+      <c r="AKA1"/>
+      <c r="AKB1"/>
+      <c r="AKC1"/>
+      <c r="AKD1"/>
+      <c r="AKE1"/>
+      <c r="AKF1"/>
+      <c r="AKG1"/>
+      <c r="AKH1"/>
+      <c r="AKI1"/>
+      <c r="AKJ1"/>
+      <c r="AKK1"/>
+      <c r="AKL1"/>
+      <c r="AKM1"/>
+      <c r="AKN1"/>
+      <c r="AKO1"/>
+      <c r="AKP1"/>
+      <c r="AKQ1"/>
+      <c r="AKR1"/>
+      <c r="AKS1"/>
+      <c r="AKT1"/>
+      <c r="AKU1"/>
+      <c r="AKV1"/>
+      <c r="AKW1"/>
+      <c r="AKX1"/>
+      <c r="AKY1"/>
+      <c r="AKZ1"/>
+      <c r="ALA1"/>
+      <c r="ALB1"/>
+      <c r="ALC1"/>
+      <c r="ALD1"/>
+      <c r="ALE1"/>
+      <c r="ALF1"/>
+      <c r="ALG1"/>
+      <c r="ALH1"/>
+      <c r="ALI1"/>
+      <c r="ALJ1"/>
+      <c r="ALK1"/>
+      <c r="ALL1"/>
+      <c r="ALM1"/>
+      <c r="ALN1"/>
+      <c r="ALO1"/>
+      <c r="ALP1"/>
+      <c r="ALQ1"/>
+      <c r="ALR1"/>
+      <c r="ALS1"/>
+      <c r="ALT1"/>
+      <c r="ALU1"/>
+      <c r="ALV1"/>
+      <c r="ALW1"/>
+      <c r="ALX1"/>
+      <c r="ALY1"/>
+      <c r="ALZ1"/>
+      <c r="AMA1"/>
+      <c r="AMB1"/>
+      <c r="AMC1"/>
+      <c r="AMD1"/>
+      <c r="AME1"/>
+      <c r="AMF1"/>
+      <c r="AMG1"/>
+      <c r="AMH1"/>
+      <c r="AMI1"/>
+      <c r="AMJ1"/>
+    </row>
+    <row r="2" spans="1:1024" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1651,8 +1896,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1668,8 +1913,8 @@
       <c r="J3" s="4"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1685,8 +1930,8 @@
       <c r="J4" s="4"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1702,8 +1947,8 @@
       <c r="J5" s="4"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1719,8 +1964,8 @@
       <c r="J6" s="4"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1736,8 +1981,8 @@
       <c r="J7" s="4"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1753,8 +1998,8 @@
       <c r="J8" s="4"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1770,8 +2015,8 @@
       <c r="J9" s="4"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1787,8 +2032,8 @@
       <c r="J10" s="4"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1804,8 +2049,8 @@
       <c r="J11" s="4"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1821,8 +2066,8 @@
       <c r="J12" s="4"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1838,8 +2083,8 @@
       <c r="J13" s="4"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1855,8 +2100,8 @@
       <c r="J14" s="4"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1872,8 +2117,8 @@
       <c r="J15" s="4"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1889,8 +2134,8 @@
       <c r="J16" s="4"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1906,8 +2151,8 @@
       <c r="J17" s="4"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1923,8 +2168,8 @@
       <c r="J18" s="4"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1940,8 +2185,8 @@
       <c r="J19" s="4"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1957,8 +2202,8 @@
       <c r="J20" s="4"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1974,8 +2219,8 @@
       <c r="J21" s="4"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>74</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1991,8 +2236,8 @@
       <c r="J22" s="4"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>75</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2008,8 +2253,8 @@
       <c r="J23" s="4"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>76</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2025,8 +2270,8 @@
       <c r="J24" s="4"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>80</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2042,8 +2287,8 @@
       <c r="J25" s="4"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>82</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2059,8 +2304,8 @@
       <c r="J26" s="4"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>88</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2076,8 +2321,8 @@
       <c r="J27" s="4"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2093,8 +2338,8 @@
       <c r="J28" s="4"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2110,8 +2355,8 @@
       <c r="J29" s="4"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2127,8 +2372,8 @@
       <c r="J30" s="4"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2144,8 +2389,8 @@
       <c r="J31" s="4"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2161,8 +2406,8 @@
       <c r="J32" s="4"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2176,10 +2421,13 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
+      <c r="N33" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2195,8 +2443,8 @@
       <c r="J34" s="4"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>13</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2212,8 +2460,8 @@
       <c r="J35" s="4"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2229,8 +2477,8 @@
       <c r="J36" s="4"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>15</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2246,8 +2494,8 @@
       <c r="J37" s="4"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2263,8 +2511,8 @@
       <c r="J38" s="4"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>17</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2278,10 +2526,13 @@
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
+      <c r="N39" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>18</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2295,10 +2546,13 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
+      <c r="N40" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>22</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2312,10 +2566,13 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
+      <c r="N41" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>23</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2329,10 +2586,13 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
+      <c r="N42" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2346,10 +2606,13 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
+      <c r="N43" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>26</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2365,8 +2628,8 @@
       <c r="J44" s="4"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>27</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2382,8 +2645,8 @@
       <c r="J45" s="4"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>29</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2397,10 +2660,13 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
+      <c r="N46" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>30</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2416,8 +2682,8 @@
       <c r="J47" s="4"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>31</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2433,8 +2699,8 @@
       <c r="J48" s="4"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>32</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2448,10 +2714,13 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
+      <c r="N49" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>33</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2467,8 +2736,8 @@
       <c r="J50" s="4"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>34</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2484,8 +2753,8 @@
       <c r="J51" s="4"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>35</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2501,8 +2770,8 @@
       <c r="J52" s="4"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>36</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2518,8 +2787,8 @@
       <c r="J53" s="4"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>37</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2535,8 +2804,8 @@
       <c r="J54" s="4"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>38</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2552,8 +2821,8 @@
       <c r="J55" s="4"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>39</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2569,8 +2838,8 @@
       <c r="J56" s="4"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>43</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2584,10 +2853,13 @@
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
+      <c r="N57" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="P57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>46</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2603,8 +2875,8 @@
       <c r="J58" s="4"/>
       <c r="P58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>47</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -2620,8 +2892,8 @@
       <c r="J59" s="4"/>
       <c r="P59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>48</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -2637,8 +2909,8 @@
       <c r="J60" s="4"/>
       <c r="P60" s="1"/>
     </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>49</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -2654,8 +2926,8 @@
       <c r="J61" s="4"/>
       <c r="P61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>50</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -2671,8 +2943,8 @@
       <c r="J62" s="4"/>
       <c r="P62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>51</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -2688,8 +2960,8 @@
       <c r="J63" s="4"/>
       <c r="P63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>52</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -2705,8 +2977,8 @@
       <c r="J64" s="4"/>
       <c r="P64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>53</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -2722,8 +2994,8 @@
       <c r="J65" s="4"/>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>54</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -2739,8 +3011,8 @@
       <c r="J66" s="4"/>
       <c r="P66" s="1"/>
     </row>
-    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>55</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -2756,8 +3028,8 @@
       <c r="J67" s="4"/>
       <c r="P67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>56</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -2773,8 +3045,8 @@
       <c r="J68" s="4"/>
       <c r="P68" s="1"/>
     </row>
-    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>57</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -2790,8 +3062,8 @@
       <c r="J69" s="4"/>
       <c r="P69" s="1"/>
     </row>
-    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>58</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -2805,10 +3077,13 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
+      <c r="N70" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>60</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -2824,8 +3099,8 @@
       <c r="J71" s="4"/>
       <c r="P71" s="1"/>
     </row>
-    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>61</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -2841,8 +3116,8 @@
       <c r="J72" s="4"/>
       <c r="P72" s="1"/>
     </row>
-    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>62</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -2858,8 +3133,8 @@
       <c r="J73" s="4"/>
       <c r="P73" s="1"/>
     </row>
-    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>64</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -2875,8 +3150,8 @@
       <c r="J74" s="4"/>
       <c r="P74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>67</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -2890,10 +3165,13 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
+      <c r="N75" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="P75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>68</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -2907,10 +3185,13 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
+      <c r="N76" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="P76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>69</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -2926,8 +3207,8 @@
       </c>
       <c r="P77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>70</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -2943,8 +3224,8 @@
       <c r="J78" s="4"/>
       <c r="P78" s="1"/>
     </row>
-    <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>71</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -2960,8 +3241,8 @@
       <c r="J79" s="4"/>
       <c r="P79" s="1"/>
     </row>
-    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>72</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -2977,8 +3258,8 @@
       <c r="J80" s="4"/>
       <c r="P80" s="1"/>
     </row>
-    <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>73</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -2994,8 +3275,8 @@
       <c r="J81" s="4"/>
       <c r="P81" s="1"/>
     </row>
-    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>77</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3011,8 +3292,8 @@
       <c r="J82" s="4"/>
       <c r="P82" s="1"/>
     </row>
-    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>78</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -3026,8 +3307,8 @@
       <c r="J83" s="4"/>
       <c r="P83" s="1"/>
     </row>
-    <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>79</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3041,8 +3322,8 @@
       <c r="J84" s="4"/>
       <c r="P84" s="1"/>
     </row>
-    <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -3058,8 +3339,8 @@
       <c r="J85" s="4"/>
       <c r="P85" s="1"/>
     </row>
-    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -3075,8 +3356,8 @@
       <c r="J86" s="4"/>
       <c r="P86" s="1"/>
     </row>
-    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -3090,10 +3371,13 @@
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
+      <c r="N87" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="P87" s="1"/>
     </row>
-    <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>85</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3109,8 +3393,8 @@
       <c r="J88" s="4"/>
       <c r="P88" s="1"/>
     </row>
-    <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -3126,8 +3410,8 @@
       <c r="J89" s="4"/>
       <c r="P89" s="1"/>
     </row>
-    <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -3143,9 +3427,9 @@
       <c r="J90" s="4"/>
       <c r="P90" s="1"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0"/>
-      <c r="B91" s="0"/>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91"/>
+      <c r="B91"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
@@ -3154,8 +3438,8 @@
       <c r="J91" s="4"/>
       <c r="P91" s="1"/>
     </row>
-    <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -3171,8 +3455,8 @@
       <c r="J92" s="4"/>
       <c r="P92" s="1"/>
     </row>
-    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -3188,8 +3472,8 @@
       <c r="J93" s="4"/>
       <c r="P93" s="1"/>
     </row>
-    <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -3205,8 +3489,8 @@
       <c r="J94" s="4"/>
       <c r="P94" s="1"/>
     </row>
-    <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -3224,68 +3508,45 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:J95">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/misc/Yaledataset+handover.xlsx
+++ b/misc/Yaledataset+handover.xlsx
@@ -802,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N76" sqref="N76"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +818,7 @@
     <col min="10" max="10" width="15.28515625" style="1"/>
     <col min="11" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="15.5703125" style="2"/>
-    <col min="14" max="14" width="15.140625" style="2"/>
+    <col min="14" max="14" width="19.85546875" style="2" customWidth="1"/>
     <col min="15" max="15" width="30.85546875" style="2"/>
     <col min="16" max="1025" width="9.140625" style="2"/>
   </cols>
